--- a/benchmarktests/testdefinitions/Benchmarktest_traject 30-4.xlsx
+++ b/benchmarktests/testdefinitions/Benchmarktest_traject 30-4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\wbi-assemblage-rekenkern\benchmarktests\testdefinitions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B90764ED-06FC-413A-B425-7F43B19B25DB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{910ACB80-2A0F-482C-92C0-46E6B16B7C6B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="653" firstSheet="1" activeTab="10" xr2:uid="{34AC3CB5-6C6A-4A77-BC52-5E824B97181F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="653" firstSheet="1" activeTab="2" xr2:uid="{34AC3CB5-6C6A-4A77-BC52-5E824B97181F}"/>
   </bookViews>
   <sheets>
     <sheet name="Informatiepagina" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="107">
   <si>
     <t>Vaknaam</t>
   </si>
@@ -350,9 +350,6 @@
   </si>
   <si>
     <t>Gecombineerd</t>
-  </si>
-  <si>
-    <t>Je</t>
   </si>
   <si>
     <t>30-4</t>
@@ -2199,7 +2196,7 @@
   </sheetPr>
   <dimension ref="B1:L45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3:E11"/>
     </sheetView>
   </sheetViews>
@@ -2221,7 +2218,7 @@
         <v>102</v>
       </c>
       <c r="E2" s="68" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F2" s="53" t="s">
         <v>66</v>
@@ -2253,12 +2250,12 @@
         <v>0.1</v>
       </c>
       <c r="D3" s="22" t="str">
-        <f>IF(COUNTIF(F3:L3,"D")&gt;0,"D",IF(COUNTIF(F3:L3,"-III")&gt;0,"-III",IF(COUNTIF(F3:L3,"-II")&gt;0,"-II",IF(COUNTIF(F3:L3,"-I")&gt;0,"-I",IF(COUNTIF(F3:L3,"+0")&gt;0,"+0",IF(COUNTIF(F3:L3,"+I")&gt;0,"+I",IF(COUNTIF(F3:L3,"+II")&gt;0,"+II",IF(COUNTIF(F3:L3,"+III")&gt;0,"+III",IF(COUNTIF(F3:L3,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" ref="D3:D11" si="0">IF(COUNTIF(F3:L3,"D")&gt;0,"D",IF(COUNTIF(F3:L3,"-III")&gt;0,"-III",IF(COUNTIF(F3:L3,"-II")&gt;0,"-II",IF(COUNTIF(F3:L3,"-I")&gt;0,"-I",IF(COUNTIF(F3:L3,"+0")&gt;0,"+0",IF(COUNTIF(F3:L3,"+I")&gt;0,"+I",IF(COUNTIF(F3:L3,"+II")&gt;0,"+II",IF(COUNTIF(F3:L3,"+III")&gt;0,"+III",IF(COUNTIF(F3:L3,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>D</v>
       </c>
       <c r="E3" s="22" t="str">
-        <f>IF(COUNTIF(F3:L3,"-III")&gt;0,"-III",IF(COUNTIF(F3:L3,"-II")&gt;0,"-II",IF(COUNTIF(F3:L3,"-I")&gt;0,"-I",IF(COUNTIF(F3:L3,"+0")&gt;0,"+0",IF(COUNTIF(F3:L3,"+I")&gt;0,"+I",IF(COUNTIF(F3:L3,"+II")&gt;0,"+II",IF(COUNTIF(F3:L3,"+III")&gt;0,"+III",IF(COUNTIF(F3:L3,"ND")&gt;0,"ND","NR"))))))))</f>
-        <v>-I</v>
+        <f t="shared" ref="E3:E11" si="1">IF(COUNTIF(F3:L3,"-III")&gt;0,"-III",IF(COUNTIF(F3:L3,"-II")&gt;0,"-II",IF(COUNTIF(F3:L3,"-I")&gt;0,"-I",IF(COUNTIF(F3:L3,"+0")&gt;0,"+0",IF(COUNTIF(F3:L3,"+I")&gt;0,"+I",IF(COUNTIF(F3:L3,"+II")&gt;0,"+II",IF(COUNTIF(F3:L3,"+III")&gt;0,"+III",IF(COUNTIF(F3:L3,"ND")&gt;0,"ND","NR"))))))))</f>
+        <v>+0</v>
       </c>
       <c r="F3" s="4" t="str">
         <f t="array" ref="F3">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B3,C3),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
@@ -2270,7 +2267,7 @@
       </c>
       <c r="H3" s="4" t="str">
         <f t="array" ref="H3">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B3,C3),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>-I</v>
+        <v>+0</v>
       </c>
       <c r="I3" s="4" t="str">
         <f t="array" ref="I3">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B3,C3),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -2297,12 +2294,12 @@
         <v>0.5</v>
       </c>
       <c r="D4" s="23" t="str">
-        <f>IF(COUNTIF(F4:L4,"D")&gt;0,"D",IF(COUNTIF(F4:L4,"-III")&gt;0,"-III",IF(COUNTIF(F4:L4,"-II")&gt;0,"-II",IF(COUNTIF(F4:L4,"-I")&gt;0,"-I",IF(COUNTIF(F4:L4,"+0")&gt;0,"+0",IF(COUNTIF(F4:L4,"+I")&gt;0,"+I",IF(COUNTIF(F4:L4,"+II")&gt;0,"+II",IF(COUNTIF(F4:L4,"+III")&gt;0,"+III",IF(COUNTIF(F4:L4,"ND")&gt;0,"ND","NR")))))))))</f>
-        <v>-I</v>
+        <f t="shared" si="0"/>
+        <v>+0</v>
       </c>
       <c r="E4" s="23" t="str">
-        <f>IF(COUNTIF(F4:L4,"-III")&gt;0,"-III",IF(COUNTIF(F4:L4,"-II")&gt;0,"-II",IF(COUNTIF(F4:L4,"-I")&gt;0,"-I",IF(COUNTIF(F4:L4,"+0")&gt;0,"+0",IF(COUNTIF(F4:L4,"+I")&gt;0,"+I",IF(COUNTIF(F4:L4,"+II")&gt;0,"+II",IF(COUNTIF(F4:L4,"+III")&gt;0,"+III",IF(COUNTIF(F4:L4,"ND")&gt;0,"ND","NR"))))))))</f>
-        <v>-I</v>
+        <f t="shared" si="1"/>
+        <v>+0</v>
       </c>
       <c r="F4" s="9" t="str">
         <f t="array" ref="F4">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B4,C4),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
@@ -2314,7 +2311,7 @@
       </c>
       <c r="H4" s="9" t="str">
         <f t="array" ref="H4">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B4,C4),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>-I</v>
+        <v>+0</v>
       </c>
       <c r="I4" s="9" t="str">
         <f t="array" ref="I4">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B4,C4),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -2341,11 +2338,11 @@
         <v>0.6</v>
       </c>
       <c r="D5" s="23" t="str">
-        <f>IF(COUNTIF(F5:L5,"D")&gt;0,"D",IF(COUNTIF(F5:L5,"-III")&gt;0,"-III",IF(COUNTIF(F5:L5,"-II")&gt;0,"-II",IF(COUNTIF(F5:L5,"-I")&gt;0,"-I",IF(COUNTIF(F5:L5,"+0")&gt;0,"+0",IF(COUNTIF(F5:L5,"+I")&gt;0,"+I",IF(COUNTIF(F5:L5,"+II")&gt;0,"+II",IF(COUNTIF(F5:L5,"+III")&gt;0,"+III",IF(COUNTIF(F5:L5,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="0"/>
         <v>D</v>
       </c>
       <c r="E5" s="23" t="str">
-        <f>IF(COUNTIF(F5:L5,"-III")&gt;0,"-III",IF(COUNTIF(F5:L5,"-II")&gt;0,"-II",IF(COUNTIF(F5:L5,"-I")&gt;0,"-I",IF(COUNTIF(F5:L5,"+0")&gt;0,"+0",IF(COUNTIF(F5:L5,"+I")&gt;0,"+I",IF(COUNTIF(F5:L5,"+II")&gt;0,"+II",IF(COUNTIF(F5:L5,"+III")&gt;0,"+III",IF(COUNTIF(F5:L5,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="1"/>
         <v>+0</v>
       </c>
       <c r="F5" s="9" t="str">
@@ -2385,11 +2382,11 @@
         <v>1</v>
       </c>
       <c r="D6" s="23" t="str">
-        <f>IF(COUNTIF(F6:L6,"D")&gt;0,"D",IF(COUNTIF(F6:L6,"-III")&gt;0,"-III",IF(COUNTIF(F6:L6,"-II")&gt;0,"-II",IF(COUNTIF(F6:L6,"-I")&gt;0,"-I",IF(COUNTIF(F6:L6,"+0")&gt;0,"+0",IF(COUNTIF(F6:L6,"+I")&gt;0,"+I",IF(COUNTIF(F6:L6,"+II")&gt;0,"+II",IF(COUNTIF(F6:L6,"+III")&gt;0,"+III",IF(COUNTIF(F6:L6,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="0"/>
         <v>D</v>
       </c>
       <c r="E6" s="23" t="str">
-        <f>IF(COUNTIF(F6:L6,"-III")&gt;0,"-III",IF(COUNTIF(F6:L6,"-II")&gt;0,"-II",IF(COUNTIF(F6:L6,"-I")&gt;0,"-I",IF(COUNTIF(F6:L6,"+0")&gt;0,"+0",IF(COUNTIF(F6:L6,"+I")&gt;0,"+I",IF(COUNTIF(F6:L6,"+II")&gt;0,"+II",IF(COUNTIF(F6:L6,"+III")&gt;0,"+III",IF(COUNTIF(F6:L6,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="1"/>
         <v>+0</v>
       </c>
       <c r="F6" s="9" t="str">
@@ -2429,11 +2426,11 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="D7" s="23" t="str">
-        <f>IF(COUNTIF(F7:L7,"D")&gt;0,"D",IF(COUNTIF(F7:L7,"-III")&gt;0,"-III",IF(COUNTIF(F7:L7,"-II")&gt;0,"-II",IF(COUNTIF(F7:L7,"-I")&gt;0,"-I",IF(COUNTIF(F7:L7,"+0")&gt;0,"+0",IF(COUNTIF(F7:L7,"+I")&gt;0,"+I",IF(COUNTIF(F7:L7,"+II")&gt;0,"+II",IF(COUNTIF(F7:L7,"+III")&gt;0,"+III",IF(COUNTIF(F7:L7,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="0"/>
         <v>D</v>
       </c>
       <c r="E7" s="23" t="str">
-        <f>IF(COUNTIF(F7:L7,"-III")&gt;0,"-III",IF(COUNTIF(F7:L7,"-II")&gt;0,"-II",IF(COUNTIF(F7:L7,"-I")&gt;0,"-I",IF(COUNTIF(F7:L7,"+0")&gt;0,"+0",IF(COUNTIF(F7:L7,"+I")&gt;0,"+I",IF(COUNTIF(F7:L7,"+II")&gt;0,"+II",IF(COUNTIF(F7:L7,"+III")&gt;0,"+III",IF(COUNTIF(F7:L7,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="1"/>
         <v>+I</v>
       </c>
       <c r="F7" s="9" t="str">
@@ -2473,11 +2470,11 @@
         <v>1.5</v>
       </c>
       <c r="D8" s="23" t="str">
-        <f>IF(COUNTIF(F8:L8,"D")&gt;0,"D",IF(COUNTIF(F8:L8,"-III")&gt;0,"-III",IF(COUNTIF(F8:L8,"-II")&gt;0,"-II",IF(COUNTIF(F8:L8,"-I")&gt;0,"-I",IF(COUNTIF(F8:L8,"+0")&gt;0,"+0",IF(COUNTIF(F8:L8,"+I")&gt;0,"+I",IF(COUNTIF(F8:L8,"+II")&gt;0,"+II",IF(COUNTIF(F8:L8,"+III")&gt;0,"+III",IF(COUNTIF(F8:L8,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="0"/>
         <v>D</v>
       </c>
       <c r="E8" s="23" t="str">
-        <f>IF(COUNTIF(F8:L8,"-III")&gt;0,"-III",IF(COUNTIF(F8:L8,"-II")&gt;0,"-II",IF(COUNTIF(F8:L8,"-I")&gt;0,"-I",IF(COUNTIF(F8:L8,"+0")&gt;0,"+0",IF(COUNTIF(F8:L8,"+I")&gt;0,"+I",IF(COUNTIF(F8:L8,"+II")&gt;0,"+II",IF(COUNTIF(F8:L8,"+III")&gt;0,"+III",IF(COUNTIF(F8:L8,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="1"/>
         <v>+I</v>
       </c>
       <c r="F8" s="9" t="str">
@@ -2517,12 +2514,12 @@
         <v>1.6</v>
       </c>
       <c r="D9" s="23" t="str">
-        <f>IF(COUNTIF(F9:L9,"D")&gt;0,"D",IF(COUNTIF(F9:L9,"-III")&gt;0,"-III",IF(COUNTIF(F9:L9,"-II")&gt;0,"-II",IF(COUNTIF(F9:L9,"-I")&gt;0,"-I",IF(COUNTIF(F9:L9,"+0")&gt;0,"+0",IF(COUNTIF(F9:L9,"+I")&gt;0,"+I",IF(COUNTIF(F9:L9,"+II")&gt;0,"+II",IF(COUNTIF(F9:L9,"+III")&gt;0,"+III",IF(COUNTIF(F9:L9,"ND")&gt;0,"ND","NR")))))))))</f>
-        <v>-II</v>
+        <f t="shared" si="0"/>
+        <v>+0</v>
       </c>
       <c r="E9" s="23" t="str">
-        <f>IF(COUNTIF(F9:L9,"-III")&gt;0,"-III",IF(COUNTIF(F9:L9,"-II")&gt;0,"-II",IF(COUNTIF(F9:L9,"-I")&gt;0,"-I",IF(COUNTIF(F9:L9,"+0")&gt;0,"+0",IF(COUNTIF(F9:L9,"+I")&gt;0,"+I",IF(COUNTIF(F9:L9,"+II")&gt;0,"+II",IF(COUNTIF(F9:L9,"+III")&gt;0,"+III",IF(COUNTIF(F9:L9,"ND")&gt;0,"ND","NR"))))))))</f>
-        <v>-II</v>
+        <f t="shared" si="1"/>
+        <v>+0</v>
       </c>
       <c r="F9" s="9" t="str">
         <f t="array" ref="F9">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B9,C9),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
@@ -2546,7 +2543,7 @@
       </c>
       <c r="K9" s="9" t="str">
         <f t="array" ref="K9">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B9,C9),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>-II</v>
+        <v>+0</v>
       </c>
       <c r="L9" s="12" t="str">
         <f t="array" ref="L9">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B9,C9),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
@@ -2561,11 +2558,11 @@
         <v>2</v>
       </c>
       <c r="D10" s="23" t="str">
-        <f>IF(COUNTIF(F10:L10,"D")&gt;0,"D",IF(COUNTIF(F10:L10,"-III")&gt;0,"-III",IF(COUNTIF(F10:L10,"-II")&gt;0,"-II",IF(COUNTIF(F10:L10,"-I")&gt;0,"-I",IF(COUNTIF(F10:L10,"+0")&gt;0,"+0",IF(COUNTIF(F10:L10,"+I")&gt;0,"+I",IF(COUNTIF(F10:L10,"+II")&gt;0,"+II",IF(COUNTIF(F10:L10,"+III")&gt;0,"+III",IF(COUNTIF(F10:L10,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="0"/>
         <v>+I</v>
       </c>
       <c r="E10" s="23" t="str">
-        <f>IF(COUNTIF(F10:L10,"-III")&gt;0,"-III",IF(COUNTIF(F10:L10,"-II")&gt;0,"-II",IF(COUNTIF(F10:L10,"-I")&gt;0,"-I",IF(COUNTIF(F10:L10,"+0")&gt;0,"+0",IF(COUNTIF(F10:L10,"+I")&gt;0,"+I",IF(COUNTIF(F10:L10,"+II")&gt;0,"+II",IF(COUNTIF(F10:L10,"+III")&gt;0,"+III",IF(COUNTIF(F10:L10,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="1"/>
         <v>+I</v>
       </c>
       <c r="F10" s="9" t="str">
@@ -2605,11 +2602,11 @@
         <v>2.0680000000000001</v>
       </c>
       <c r="D11" s="23" t="str">
-        <f>IF(COUNTIF(F11:L11,"D")&gt;0,"D",IF(COUNTIF(F11:L11,"-III")&gt;0,"-III",IF(COUNTIF(F11:L11,"-II")&gt;0,"-II",IF(COUNTIF(F11:L11,"-I")&gt;0,"-I",IF(COUNTIF(F11:L11,"+0")&gt;0,"+0",IF(COUNTIF(F11:L11,"+I")&gt;0,"+I",IF(COUNTIF(F11:L11,"+II")&gt;0,"+II",IF(COUNTIF(F11:L11,"+III")&gt;0,"+III",IF(COUNTIF(F11:L11,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="0"/>
         <v>D</v>
       </c>
       <c r="E11" s="23" t="str">
-        <f>IF(COUNTIF(F11:L11,"-III")&gt;0,"-III",IF(COUNTIF(F11:L11,"-II")&gt;0,"-II",IF(COUNTIF(F11:L11,"-I")&gt;0,"-I",IF(COUNTIF(F11:L11,"+0")&gt;0,"+0",IF(COUNTIF(F11:L11,"+I")&gt;0,"+I",IF(COUNTIF(F11:L11,"+II")&gt;0,"+II",IF(COUNTIF(F11:L11,"+III")&gt;0,"+III",IF(COUNTIF(F11:L11,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="1"/>
         <v>+I</v>
       </c>
       <c r="F11" s="9" t="str">
@@ -2805,7 +2802,7 @@
         <v>50</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>37</v>
@@ -2850,7 +2847,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B5" s="9">
         <v>2.0680000000000001</v>
@@ -3026,8 +3023,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49710E67-B736-4749-B620-06835F5DE469}">
   <dimension ref="B2:Y32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O11" sqref="O11:O14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="X12" sqref="Q12:X14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3068,7 +3065,7 @@
     </row>
     <row r="4" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B4" s="40" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>17</v>
@@ -3238,11 +3235,11 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="V11" s="9">
-        <f>IFERROR(MATCH($U11,'Normen en duidingsklassen'!$E$13:$E$20,),1)</f>
+        <f>IFERROR(MATCH($U11,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>4</v>
       </c>
       <c r="W11" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,STPH!V11)</f>
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,V11)</f>
         <v>+0</v>
       </c>
       <c r="X11" s="12" t="b">
@@ -3294,19 +3291,19 @@
         <v>+0</v>
       </c>
       <c r="Q12" s="31">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="Q12:Q14" si="5">IF(AND(F12="Geen faalkans",I12="Nee"),1,1-M12)</f>
         <v>0.99999989366666664</v>
       </c>
       <c r="R12" s="10">
-        <f t="shared" ref="R12:R14" si="5">IF(M12="-",1,Q12)</f>
+        <f t="shared" ref="R12:R14" si="6">IF(M12="-",1,Q12)</f>
         <v>0.99999989366666664</v>
       </c>
       <c r="S12" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="S12:S14" si="7">IF(AND(F12="Geen faalkans",I12="Nee"),0,L12*$C$3)</f>
         <v>1.8438199999999999E-6</v>
       </c>
       <c r="T12" s="10">
-        <f t="shared" ref="T12:T14" si="6">IF(L12="-",0,S12)</f>
+        <f t="shared" ref="T12:T14" si="8">IF(L12="-",0,S12)</f>
         <v>1.8438199999999999E-6</v>
       </c>
       <c r="U12" s="9">
@@ -3314,15 +3311,15 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="V12" s="9">
-        <f>IFERROR(MATCH($U12,'Normen en duidingsklassen'!$E$13:$E$20,),1)</f>
+        <f>IFERROR(MATCH($U12,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>4</v>
       </c>
       <c r="W12" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,STPH!V12)</f>
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,V12)</f>
         <v>+0</v>
       </c>
       <c r="X12" s="12" t="b">
-        <f t="shared" ref="X12:X14" si="7">IF($E12="Ja",IF($I12="Ja",NOT(ISNUMBER($J12)),FALSE),FALSE)</f>
+        <f t="shared" ref="X12:X14" si="9">IF($E12="Ja",IF($I12="Ja",NOT(ISNUMBER($J12)),FALSE),FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -3370,19 +3367,19 @@
         <v>D</v>
       </c>
       <c r="Q13" s="31" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
       <c r="R13" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="S13" s="10" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
       <c r="T13" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="U13" s="9">
@@ -3390,15 +3387,15 @@
         <v>0</v>
       </c>
       <c r="V13" s="9">
-        <f>IFERROR(MATCH($U13,'Normen en duidingsklassen'!$E$13:$E$20,),1)</f>
+        <f>IFERROR(MATCH($U13,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>1</v>
       </c>
       <c r="W13" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,STPH!V13)</f>
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,V13)</f>
         <v>+III</v>
       </c>
       <c r="X13" s="12" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -3446,19 +3443,19 @@
         <v>+III</v>
       </c>
       <c r="Q14" s="31">
-        <f t="shared" si="3"/>
-        <v>0.99999999999999822</v>
-      </c>
-      <c r="R14" s="10">
         <f t="shared" si="5"/>
         <v>0.99999999999999822</v>
       </c>
+      <c r="R14" s="10">
+        <f t="shared" si="6"/>
+        <v>0.99999999999999822</v>
+      </c>
       <c r="S14" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>2.8900000000000002E-14</v>
       </c>
       <c r="T14" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.8900000000000002E-14</v>
       </c>
       <c r="U14" s="9">
@@ -3466,15 +3463,15 @@
         <v>1.0000000000000001E-9</v>
       </c>
       <c r="V14" s="9">
-        <f>IFERROR(MATCH($U14,'Normen en duidingsklassen'!$E$13:$E$20,),1)</f>
+        <f>IFERROR(MATCH($U14,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>1</v>
       </c>
       <c r="W14" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,STPH!V14)</f>
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,V14)</f>
         <v>+III</v>
       </c>
       <c r="X14" s="12" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -3985,7 +3982,7 @@
   <dimension ref="B2:Y32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O11" sqref="O11:O14"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4026,7 +4023,7 @@
     </row>
     <row r="4" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B4" s="40" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>17</v>
@@ -4943,7 +4940,7 @@
   <dimension ref="B2:U73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K11" sqref="K11:K14"/>
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4980,7 +4977,7 @@
     </row>
     <row r="4" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B4" s="40" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>18</v>
@@ -5105,7 +5102,7 @@
       </c>
       <c r="K11" s="30" t="str">
         <f>IF($E11="Nee","NR",IF(ISNUMBER($J11),S11,IF($T11,"D","ND")))</f>
-        <v>-I</v>
+        <v>+0</v>
       </c>
       <c r="M11" s="31">
         <f t="shared" ref="M11" si="1">IF(AND(F11="Geen faalkans",H11="Nee"),1,1-J11)</f>
@@ -5124,16 +5121,16 @@
         <v>2.3999999999999998E-7</v>
       </c>
       <c r="Q11" s="9">
-        <f t="array" ref="Q11">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J11,'Normen en duidingsklassen'!$E$13:$E$20))</f>
+        <f t="array" ref="Q11">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J11,'Normen en duidingsklassen'!$E$13:$E$20))</f>
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="R11" s="9">
-        <f>IFERROR(MATCH($Q11,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
-        <v>5</v>
+        <f>IFERROR(MATCH($Q11,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
+        <v>4</v>
       </c>
       <c r="S11" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R11)</f>
-        <v>-I</v>
+        <v>+0</v>
       </c>
       <c r="T11" s="12" t="b">
         <f>IF($E11="Ja",IF($H11="Ja",NOT(ISNUMBER($I11)),FALSE),FALSE)</f>
@@ -5190,11 +5187,11 @@
         <v>0</v>
       </c>
       <c r="Q12" s="9">
-        <f t="array" ref="Q12">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J12,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.0000000000000001E-9</v>
+        <f t="array" ref="Q12">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J12,'Normen en duidingsklassen'!$E$13:$E$20))</f>
+        <v>0</v>
       </c>
       <c r="R12" s="9">
-        <f>IFERROR(MATCH($Q12,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
+        <f>IFERROR(MATCH($Q12,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>1</v>
       </c>
       <c r="S12" s="9" t="str">
@@ -5254,11 +5251,11 @@
         <v>0</v>
       </c>
       <c r="Q13" s="9">
-        <f t="array" ref="Q13">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J13,'Normen en duidingsklassen'!$E$13:$E$20))</f>
+        <f t="array" ref="Q13">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J13,'Normen en duidingsklassen'!$E$13:$E$20))</f>
         <v>0</v>
       </c>
       <c r="R13" s="9">
-        <f>IFERROR(MATCH($Q13,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
+        <f>IFERROR(MATCH($Q13,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>1</v>
       </c>
       <c r="S13" s="9" t="str">
@@ -5320,11 +5317,11 @@
         <v>7.9999999999999988E-9</v>
       </c>
       <c r="Q14" s="9">
-        <f t="array" ref="Q14">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J14,'Normen en duidingsklassen'!$E$13:$E$20))</f>
+        <f t="array" ref="Q14">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J14,'Normen en duidingsklassen'!$E$13:$E$20))</f>
         <v>1E-8</v>
       </c>
       <c r="R14" s="9">
-        <f>IFERROR(MATCH($Q14,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
+        <f>IFERROR(MATCH($Q14,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>2</v>
       </c>
       <c r="S14" s="9" t="str">
@@ -6599,7 +6596,7 @@
   <dimension ref="B2:U13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6637,7 +6634,7 @@
     </row>
     <row r="4" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B4" s="40" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>18</v>
@@ -6921,7 +6918,7 @@
   <dimension ref="B2:U30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K11" sqref="K11:K19"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6958,7 +6955,7 @@
     </row>
     <row r="4" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B4" s="40" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>18</v>
@@ -6981,6 +6978,8 @@
         <f>MIN(1-PRODUCT(N11:N28),MAX(P11:P28))</f>
         <v>7.1118888556043203E-9</v>
       </c>
+      <c r="N6" s="1"/>
+      <c r="P6" s="1"/>
     </row>
     <row r="7" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="41" t="s">
@@ -7927,7 +7926,7 @@
   <dimension ref="B2:U30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K11" sqref="K11:K19"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7951,7 +7950,7 @@
         <v>46</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="2:21" x14ac:dyDescent="0.25">
@@ -7964,7 +7963,7 @@
     </row>
     <row r="4" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B4" s="40" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>18</v>
@@ -8088,15 +8087,15 @@
         <v>D</v>
       </c>
       <c r="M11" s="31" t="e">
-        <f t="shared" ref="M11:M19" si="2">IF(AND(F11="Geen faalkans",H11="Nee"),1,1-J11)</f>
+        <f t="shared" ref="M11" si="2">IF(AND(F11="Geen faalkans",H11="Nee"),1,1-J11)</f>
         <v>#VALUE!</v>
       </c>
       <c r="N11" s="10">
-        <f t="shared" ref="N11:N19" si="3">IF(J11="-",1,M11)</f>
+        <f t="shared" ref="N11" si="3">IF(J11="-",1,M11)</f>
         <v>1</v>
       </c>
       <c r="O11" s="10" t="e">
-        <f t="shared" ref="O11:O19" si="4">IF(AND(F11="Geen faalkans",H11="Nee"),0,J11*$C$3)</f>
+        <f t="shared" ref="O11" si="4">IF(AND(F11="Geen faalkans",H11="Nee"),0,J11*$C$3)</f>
         <v>#VALUE!</v>
       </c>
       <c r="P11" s="10">
@@ -8104,11 +8103,11 @@
         <v>0</v>
       </c>
       <c r="Q11" s="9">
-        <f t="array" ref="Q11">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J11,'Normen en duidingsklassen'!$E$13:$E$20))</f>
+        <f t="array" ref="Q11">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J11,'Normen en duidingsklassen'!$E$13:$E$20))</f>
         <v>0</v>
       </c>
       <c r="R11" s="9">
-        <f>IFERROR(MATCH($Q11,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
+        <f>IFERROR(MATCH($Q11,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>1</v>
       </c>
       <c r="S11" s="9" t="str">
@@ -8150,27 +8149,27 @@
         <v>NR</v>
       </c>
       <c r="M12" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="M12:M19" si="5">IF(AND(F12="Geen faalkans",H12="Nee"),1,1-J12)</f>
         <v>1</v>
       </c>
       <c r="N12" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="N12:N19" si="6">IF(J12="-",1,M12)</f>
         <v>1</v>
       </c>
       <c r="O12" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="O12:O19" si="7">IF(AND(F12="Geen faalkans",H12="Nee"),0,J12*$C$3)</f>
         <v>0</v>
       </c>
       <c r="P12" s="10">
-        <f t="shared" ref="P12:P19" si="5">IF(J12="-",0,O12)</f>
+        <f t="shared" ref="P12:P19" si="8">IF(J12="-",0,O12)</f>
         <v>0</v>
       </c>
       <c r="Q12" s="9">
-        <f t="array" ref="Q12">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J12,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.0000000000000001E-9</v>
+        <f t="array" ref="Q12">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J12,'Normen en duidingsklassen'!$E$13:$E$20))</f>
+        <v>0</v>
       </c>
       <c r="R12" s="9">
-        <f>IFERROR(MATCH($Q12,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
+        <f>IFERROR(MATCH($Q12,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>1</v>
       </c>
       <c r="S12" s="9" t="str">
@@ -8178,7 +8177,7 @@
         <v>+III</v>
       </c>
       <c r="T12" s="12" t="b">
-        <f t="shared" ref="T12:T19" si="6">IF($E12="Ja",IF($H12="Ja",NOT(ISNUMBER($I12)),FALSE),FALSE)</f>
+        <f t="shared" ref="T12:T19" si="9">IF($E12="Ja",IF($H12="Ja",NOT(ISNUMBER($I12)),FALSE),FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -8193,7 +8192,7 @@
         <v>0.6</v>
       </c>
       <c r="E13" s="23" t="s">
-        <v>103</v>
+        <v>17</v>
       </c>
       <c r="F13" s="8" t="s">
         <v>21</v>
@@ -8214,27 +8213,27 @@
         <v>+III</v>
       </c>
       <c r="M13" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.99999999992156863</v>
       </c>
       <c r="N13" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.99999999992156863</v>
       </c>
       <c r="O13" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>7.843137254901961E-11</v>
       </c>
       <c r="P13" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>7.843137254901961E-11</v>
       </c>
       <c r="Q13" s="9">
-        <f t="array" ref="Q13">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J13,'Normen en duidingsklassen'!$E$13:$E$20))</f>
+        <f t="array" ref="Q13">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J13,'Normen en duidingsklassen'!$E$13:$E$20))</f>
         <v>1.0000000000000001E-9</v>
       </c>
       <c r="R13" s="9">
-        <f>IFERROR(MATCH($Q13,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
+        <f>IFERROR(MATCH($Q13,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>1</v>
       </c>
       <c r="S13" s="9" t="str">
@@ -8242,7 +8241,7 @@
         <v>+III</v>
       </c>
       <c r="T13" s="12" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -8276,27 +8275,27 @@
         <v>NR</v>
       </c>
       <c r="M14" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="N14" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="O14" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P14" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Q14" s="9">
-        <f t="array" ref="Q14">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J14,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.0000000000000001E-9</v>
+        <f t="array" ref="Q14">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J14,'Normen en duidingsklassen'!$E$13:$E$20))</f>
+        <v>0</v>
       </c>
       <c r="R14" s="9">
-        <f>IFERROR(MATCH($Q14,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
+        <f>IFERROR(MATCH($Q14,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>1</v>
       </c>
       <c r="S14" s="9" t="str">
@@ -8304,7 +8303,7 @@
         <v>+III</v>
       </c>
       <c r="T14" s="12" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -8319,7 +8318,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="E15" s="23" t="s">
-        <v>103</v>
+        <v>17</v>
       </c>
       <c r="F15" s="8" t="s">
         <v>21</v>
@@ -8340,27 +8339,27 @@
         <v>+III</v>
       </c>
       <c r="M15" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="N15" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="O15" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P15" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Q15" s="9">
-        <f t="array" ref="Q15">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J15,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.0000000000000001E-9</v>
+        <f t="array" ref="Q15">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J15,'Normen en duidingsklassen'!$E$13:$E$20))</f>
+        <v>0</v>
       </c>
       <c r="R15" s="9">
-        <f>IFERROR(MATCH($Q15,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
+        <f>IFERROR(MATCH($Q15,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>1</v>
       </c>
       <c r="S15" s="9" t="str">
@@ -8368,7 +8367,7 @@
         <v>+III</v>
       </c>
       <c r="T15" s="12" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -8402,27 +8401,27 @@
         <v>NR</v>
       </c>
       <c r="M16" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="N16" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="O16" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P16" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Q16" s="9">
-        <f t="array" ref="Q16">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J16,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.0000000000000001E-9</v>
+        <f t="array" ref="Q16">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J16,'Normen en duidingsklassen'!$E$13:$E$20))</f>
+        <v>0</v>
       </c>
       <c r="R16" s="9">
-        <f>IFERROR(MATCH($Q16,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
+        <f>IFERROR(MATCH($Q16,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>1</v>
       </c>
       <c r="S16" s="9" t="str">
@@ -8430,7 +8429,7 @@
         <v>+III</v>
       </c>
       <c r="T16" s="12" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -8465,38 +8464,38 @@
       </c>
       <c r="K17" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>-II</v>
+        <v>+0</v>
       </c>
       <c r="M17" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.99999899999999997</v>
       </c>
       <c r="N17" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.99999899999999997</v>
       </c>
       <c r="O17" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="P17" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="Q17" s="9">
-        <f t="array" ref="Q17">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J17,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>9.9999999999999991E-6</v>
+        <f t="array" ref="Q17">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J17,'Normen en duidingsklassen'!$E$13:$E$20))</f>
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="R17" s="9">
-        <f>IFERROR(MATCH($Q17,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
-        <v>6</v>
+        <f>IFERROR(MATCH($Q17,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
+        <v>4</v>
       </c>
       <c r="S17" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R17)</f>
-        <v>-II</v>
+        <v>+0</v>
       </c>
       <c r="T17" s="12" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -8530,27 +8529,27 @@
         <v>NR</v>
       </c>
       <c r="M18" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="N18" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="O18" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P18" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Q18" s="9">
-        <f t="array" ref="Q18">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J18,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.0000000000000001E-9</v>
+        <f t="array" ref="Q18">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J18,'Normen en duidingsklassen'!$E$13:$E$20))</f>
+        <v>0</v>
       </c>
       <c r="R18" s="9">
-        <f>IFERROR(MATCH($Q18,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
+        <f>IFERROR(MATCH($Q18,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>1</v>
       </c>
       <c r="S18" s="9" t="str">
@@ -8558,7 +8557,7 @@
         <v>+III</v>
       </c>
       <c r="T18" s="12" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -8596,27 +8595,27 @@
         <v>+III</v>
       </c>
       <c r="M19" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="N19" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="O19" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P19" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Q19" s="9">
-        <f t="array" ref="Q19">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J19,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.0000000000000001E-9</v>
+        <f t="array" ref="Q19">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J19,'Normen en duidingsklassen'!$E$13:$E$20))</f>
+        <v>0</v>
       </c>
       <c r="R19" s="9">
-        <f>IFERROR(MATCH($Q19,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
+        <f>IFERROR(MATCH($Q19,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>1</v>
       </c>
       <c r="S19" s="9" t="str">
@@ -8624,7 +8623,7 @@
         <v>+III</v>
       </c>
       <c r="T19" s="12" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -8931,7 +8930,7 @@
   <dimension ref="B2:U29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K11" sqref="K11:K19"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8968,7 +8967,7 @@
     </row>
     <row r="4" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B4" s="40" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>18</v>

--- a/benchmarktests/testdefinitions/Benchmarktest_traject 30-4.xlsx
+++ b/benchmarktests/testdefinitions/Benchmarktest_traject 30-4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\wbi-assemblage-rekenkern\benchmarktests\testdefinitions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{910ACB80-2A0F-482C-92C0-46E6B16B7C6B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B06B952-443C-4DA9-8C28-5C9B8BDC3B4F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="653" firstSheet="1" activeTab="2" xr2:uid="{34AC3CB5-6C6A-4A77-BC52-5E824B97181F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="653" firstSheet="1" activeTab="9" xr2:uid="{34AC3CB5-6C6A-4A77-BC52-5E824B97181F}"/>
   </bookViews>
   <sheets>
     <sheet name="Informatiepagina" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="107">
   <si>
     <t>Vaknaam</t>
   </si>
@@ -1888,8 +1888,8 @@
   </sheetPr>
   <dimension ref="B2:H14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1904,7 +1904,7 @@
         <v>73</v>
       </c>
       <c r="D2" s="1" t="str">
-        <f>IFERROR(1-PRODUCT(G7:G12),"GR")</f>
+        <f>IFERROR(1-PRODUCT(G7:G14),"GR")</f>
         <v>GR</v>
       </c>
       <c r="E2" t="str">
@@ -1912,7 +1912,7 @@
         <v>-</v>
       </c>
       <c r="G2">
-        <f t="array" ref="G2">MIN(IF('Normen en duidingsklassen'!$F$4:$F$8&gt;D2,'Normen en duidingsklassen'!$F$4:$F$8))</f>
+        <f t="array" ref="G2">MIN(IF('Normen en duidingsklassen'!$E$4:$E$8&gt;D2,'Normen en duidingsklassen'!$F$4:$F$8))</f>
         <v>0</v>
       </c>
       <c r="H2">
@@ -1925,20 +1925,20 @@
         <v>72</v>
       </c>
       <c r="D3" s="1">
-        <f>1-PRODUCT(H7:H12)</f>
-        <v>1.3939012171171328E-6</v>
+        <f>1-PRODUCT(H7:H14)</f>
+        <v>2.393899823260881E-6</v>
       </c>
       <c r="E3" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$4:$D$8,H3)</f>
-        <v>D</v>
+        <v>C</v>
       </c>
       <c r="G3">
-        <f t="array" ref="G3">MIN(IF('Normen en duidingsklassen'!$F$4:$F$8&gt;D3,'Normen en duidingsklassen'!$F$4:$F$8))</f>
-        <v>2.9999999999999997E-5</v>
+        <f t="array" ref="G3">MIN(IF('Normen en duidingsklassen'!$E$4:$E$8&gt;D3,'Normen en duidingsklassen'!$F$4:$F$8))</f>
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="H3">
         <f>IFERROR(MATCH(G3,'Normen en duidingsklassen'!$F$4:$F$8),1)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2000,11 +2000,11 @@
       </c>
       <c r="E8" s="49"/>
       <c r="G8" s="1" t="e">
-        <f t="shared" ref="G8:G14" si="0">IF(ISNUMBER(E8),1-E8,1-C8)</f>
+        <f t="shared" ref="G8:G13" si="0">IF(ISNUMBER(E8),1-E8,1-C8)</f>
         <v>#VALUE!</v>
       </c>
       <c r="H8" s="1">
-        <f t="shared" ref="H8:H14" si="1">IF(ISNUMBER(E8),1-E8,1-D8)</f>
+        <f t="shared" ref="H8:H13" si="1">IF(ISNUMBER(E8),1-E8,1-D8)</f>
         <v>0.99999995400203623</v>
       </c>
     </row>
@@ -2097,17 +2097,25 @@
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="40"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="26"/>
+      <c r="B13" s="40" t="s">
+        <v>90</v>
+      </c>
+      <c r="C13" s="31" t="str">
+        <f>BSKW!C5</f>
+        <v>GR</v>
+      </c>
+      <c r="D13" s="26">
+        <f>BSKW!C6</f>
+        <v>9.9999999999999995E-7</v>
+      </c>
       <c r="E13" s="49"/>
-      <c r="G13" s="1">
+      <c r="G13" s="1" t="e">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H13" s="1">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.99999899999999997</v>
       </c>
     </row>
     <row r="14" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2115,14 +2123,8 @@
       <c r="C14" s="33"/>
       <c r="D14" s="27"/>
       <c r="E14" s="51"/>
-      <c r="G14" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="H14" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3023,7 +3025,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49710E67-B736-4749-B620-06835F5DE469}">
   <dimension ref="B2:Y32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="X12" sqref="Q12:X14"/>
     </sheetView>
   </sheetViews>
@@ -3215,7 +3217,7 @@
         <v>+0</v>
       </c>
       <c r="Q11" s="31">
-        <f t="shared" ref="Q11:Q14" si="3">IF(AND(F11="Geen faalkans",I11="Nee"),1,1-M11)</f>
+        <f t="shared" ref="Q11" si="3">IF(AND(F11="Geen faalkans",I11="Nee"),1,1-M11)</f>
         <v>0.99999989354151886</v>
       </c>
       <c r="R11" s="10">
@@ -3223,7 +3225,7 @@
         <v>0.99999989354151886</v>
       </c>
       <c r="S11" s="10">
-        <f t="shared" ref="S11:S14" si="4">IF(AND(F11="Geen faalkans",I11="Nee"),0,L11*$C$3)</f>
+        <f t="shared" ref="S11" si="4">IF(AND(F11="Geen faalkans",I11="Nee"),0,L11*$C$3)</f>
         <v>1.8459900638750886E-6</v>
       </c>
       <c r="T11" s="10">
